--- a/arquivos/REM22062023_CARRO.xlsx
+++ b/arquivos/REM22062023_CARRO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Allan\Programacao\Projetos\.NET\GIT-Pessoal\FileManagement\arquivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorios\GIT - Pessoal\File Management\arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FD11A1-C4E9-4377-9DD8-B75ADD7511EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="11730"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REM22062023_CARRO - Copia" sheetId="1" r:id="rId1"/>
@@ -20,12 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="9">
-  <si>
-    <t>customer</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
   <si>
     <t>Jose</t>
   </si>
@@ -39,20 +34,26 @@
     <t>Toyota</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
     <t>Carro</t>
   </si>
   <si>
-    <t>value</t>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +184,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -529,8 +538,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -562,10 +572,10 @@
     <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorreto" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutra" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -851,237 +861,239 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>75800</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>98222</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>120644</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>143066</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>165488</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>187910</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>210332</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>232754</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>255176</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>277598</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>300020</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13">
         <v>322442</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>344864</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15">
         <v>367286</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>389708</v>
@@ -1089,13 +1101,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17">
         <v>412130</v>
@@ -1103,13 +1115,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>434552</v>
@@ -1117,13 +1129,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19">
         <v>456974</v>
@@ -1131,13 +1143,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>479396</v>
@@ -1145,13 +1157,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21">
         <v>501818</v>
@@ -1159,13 +1171,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>524240</v>
@@ -1173,5 +1185,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>